--- a/Database/MySQL/ex1/Wage.xlsx
+++ b/Database/MySQL/ex1/Wage.xlsx
@@ -1,16 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zakirhossain/Documents/TechStuff/MyProgramming/Database/MySQL/ex1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E38363B-D229-6D44-B09F-BC9BF073EC1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="740" windowWidth="24860" windowHeight="17280" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="24860" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -72,10 +87,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -108,8 +123,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -118,6 +133,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -442,14 +465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
@@ -457,7 +480,7 @@
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -499,7 +522,7 @@
         <v>1086.6399999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -517,11 +540,11 @@
         <v>0.06</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F11" si="0">D3*0.94</f>
+        <f t="shared" ref="F3:F10" si="0">D3*0.94</f>
         <v>972.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -543,7 +566,7 @@
         <v>1387.4399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -565,7 +588,7 @@
         <v>13113</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -587,7 +610,7 @@
         <v>4497.8999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -609,7 +632,7 @@
         <v>6167.3399999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -631,7 +654,7 @@
         <v>8144.16</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -653,7 +676,7 @@
         <v>17909.82</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -675,7 +698,7 @@
         <v>4215.8999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
